--- a/Consumer/Estee Lauder.xlsx
+++ b/Consumer/Estee Lauder.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D095502-8499-A04A-9716-290B82A89A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC3156-05B9-AC4E-A534-DD28B3685068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AC$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AC$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AC$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -970,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,12 +999,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,6 +1016,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,11 +2442,11 @@
     <v>Powered by Refinitiv</v>
     <v>284.45</v>
     <v>186.47</v>
-    <v>1.0117</v>
-    <v>-2.25</v>
-    <v>-8.7050000000000009E-3</v>
-    <v>0.77</v>
-    <v>3.0049999999999999E-3</v>
+    <v>1.0302</v>
+    <v>-6.24</v>
+    <v>-3.1015000000000001E-2</v>
+    <v>0.01</v>
+    <v>5.13E-5</v>
     <v>USD</v>
     <v>The Estee Lauder Companies Inc. manufacturers, markets and sells skin care, makeup, fragrance and hair care products. The Company operates through the beauty products segment. Its product categories include skin care, makeup, fragrance, hair care and other. The Company's products are sold in approximately 150 countries and territories under a number of brand names, including Estee Lauder, Aramis, Clinique, Lab Series, Origins, M.A.C, Bobbi Brown, La Mer, Aveda, Jo Malone London, Bumble and bumble, Darphin, Smashbox, Le Labo, Editions de Parfums Frederic Malle, GLAMGLOW, Kilian Paris, Too Faced, Dr.Jart+, DECIEM and The Ordinary. It also offers fragrances, cosmetics and/or related products under brand names, Tom Ford, Dr. Andrew Weil, and AERIN. Its skin care products include moisturizers, serums, cleansers, toners, exfoliators, acne and oil correctors, facial masks, and sun care products. Its makeup products include lipsticks, lip glosses, mascaras, foundations and others.</v>
     <v>63000</v>
@@ -2462,25 +2454,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>767 5th Ave, NEW YORK, NY, 10153 US</v>
-    <v>260.45999999999998</v>
+    <v>201.7</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45037.999731596872</v>
+    <v>45062.997127753908</v>
     <v>0</v>
-    <v>255.46</v>
-    <v>91530530000</v>
+    <v>194.9</v>
+    <v>69677664350</v>
     <v>THE ESTEE LAUDER COMPANIES INC.</v>
     <v>THE ESTEE LAUDER COMPANIES INC.</v>
-    <v>258.48</v>
-    <v>62.715800000000002</v>
-    <v>258.48</v>
-    <v>256.23</v>
-    <v>257</v>
-    <v>357220200</v>
+    <v>201.5</v>
+    <v>66.648099999999999</v>
+    <v>201.19</v>
+    <v>194.95</v>
+    <v>194.96</v>
+    <v>357413000</v>
     <v>EL</v>
     <v>THE ESTEE LAUDER COMPANIES INC. (XNYS:EL)</v>
-    <v>1308930</v>
-    <v>1321756</v>
+    <v>2021110</v>
+    <v>2430185</v>
     <v>1976</v>
   </rv>
   <rv s="2">
@@ -3068,10 +3060,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH137" sqref="AH137"/>
+      <selection pane="bottomRight" activeCell="AE99" sqref="AE99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3419,7 +3411,7 @@
         <v>6.9907735982966734E-2</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AH4" si="0">(F3/E3)-1</f>
         <v>9.4886677722498591E-2</v>
       </c>
       <c r="G4" s="15">
@@ -3944,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:AM9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AC9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -4368,7 +4360,7 @@
         <v>0.68759270118312577</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AC13" si="2">C12/C3</f>
         <v>0.67403349506965093</v>
       </c>
       <c r="D13" s="15">
@@ -4776,15 +4768,15 @@
       </c>
       <c r="AJ16" s="30">
         <f>AK101/AC3</f>
-        <v>5.1604290466256977</v>
+        <v>3.9283793397981621</v>
       </c>
       <c r="AK16" s="30">
         <f>AK101/AC28</f>
-        <v>38.297292887029286</v>
+        <v>29.153834456066946</v>
       </c>
       <c r="AL16" s="31">
         <f>AK101/AC106</f>
-        <v>45.765264999999999</v>
+        <v>34.838832175</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5079,7 +5071,7 @@
         <v>0.16291079812206566</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AC20" si="3">(F19/E19)-1</f>
         <v>0.12535324989907148</v>
       </c>
       <c r="G20" s="15">
@@ -5905,7 +5897,7 @@
         <v>0.19838056680161942</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AC29" si="4">(F28/E28)-1</f>
         <v>0.15244932432432434</v>
       </c>
       <c r="G29" s="15">
@@ -6456,7 +6448,7 @@
         <v>-0.18161573706027931</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AC35" si="5">(D34-C34)/C34</f>
         <v>0.36691934042621321</v>
       </c>
       <c r="E35" s="22">
@@ -10481,7 +10473,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AC80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -10859,10 +10851,10 @@
       <c r="AC83" s="1">
         <v>-602000000</v>
       </c>
-      <c r="AJ83" s="33" t="s">
+      <c r="AJ83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AK83" s="34"/>
+      <c r="AK83" s="63"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10952,10 +10944,10 @@
       <c r="AC84" s="1">
         <v>159000000</v>
       </c>
-      <c r="AJ84" s="35" t="s">
+      <c r="AJ84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AK84" s="36"/>
+      <c r="AK84" s="65"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11333,10 +11325,10 @@
       <c r="AC88" s="1">
         <v>0</v>
       </c>
-      <c r="AJ88" s="37" t="s">
+      <c r="AJ88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AK88" s="38">
+      <c r="AK88" s="34">
         <f>AK85/(AK86+AK87)</f>
         <v>2.1844342707652061E-2</v>
       </c>
@@ -11346,7 +11338,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AC89" si="7">(-1*B88)/B3</f>
         <v>1.5866993204787693E-2</v>
       </c>
       <c r="C89" s="15">
@@ -11649,10 +11641,10 @@
       <c r="AC91" s="1">
         <v>-10000000</v>
       </c>
-      <c r="AJ91" s="37" t="s">
+      <c r="AJ91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AK91" s="38">
+      <c r="AK91" s="34">
         <f>AK89/AK90</f>
         <v>0.20685111989459815</v>
       </c>
@@ -11745,10 +11737,10 @@
       <c r="AC92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ92" s="39" t="s">
+      <c r="AJ92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AK92" s="40">
+      <c r="AK92" s="36">
         <f>AK88*(1-AK91)</f>
         <v>1.7325815955212834E-2</v>
       </c>
@@ -11841,10 +11833,10 @@
       <c r="AC93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ93" s="35" t="s">
+      <c r="AJ93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AK93" s="36"/>
+      <c r="AK93" s="65"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11937,7 +11929,7 @@
       <c r="AJ94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AK94" s="41">
+      <c r="AK94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -12029,12 +12021,12 @@
       <c r="AC95" s="1">
         <v>-18000000</v>
       </c>
-      <c r="AJ95" s="42" t="s">
+      <c r="AJ95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AK95" s="43" cm="1">
+      <c r="AK95" s="39" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.0117</v>
+        <v>1.0302</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12128,7 +12120,7 @@
       <c r="AJ96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AK96" s="41">
+      <c r="AK96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12220,12 +12212,12 @@
       <c r="AC97" s="1">
         <v>-2309000000</v>
       </c>
-      <c r="AJ97" s="39" t="s">
+      <c r="AJ97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AK97" s="40">
+      <c r="AK97" s="36">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>8.4503685000000009E-2</v>
+        <v>8.5300110000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12316,10 +12308,10 @@
       <c r="AC98" s="1">
         <v>-840000000</v>
       </c>
-      <c r="AJ98" s="35" t="s">
+      <c r="AJ98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AK98" s="36"/>
+      <c r="AK98" s="65"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12505,12 +12497,12 @@
       <c r="AC100" s="10">
         <v>-3036000000</v>
       </c>
-      <c r="AJ100" s="37" t="s">
+      <c r="AJ100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AK100" s="38">
+      <c r="AK100" s="34">
         <f>AK99/AK103</f>
-        <v>7.7085547211091288E-2</v>
+        <v>9.8871399016917091E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12601,12 +12593,12 @@
       <c r="AC101" s="1">
         <v>-60000000</v>
       </c>
-      <c r="AJ101" s="42" t="s">
+      <c r="AJ101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AK101" s="44" cm="1">
+      <c r="AK101" s="40" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>91530530000</v>
+        <v>69677664350</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12697,12 +12689,12 @@
       <c r="AC102" s="10">
         <v>-1001000000</v>
       </c>
-      <c r="AJ102" s="37" t="s">
+      <c r="AJ102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AK102" s="38">
+      <c r="AK102" s="34">
         <f>AK101/AK103</f>
-        <v>0.92291445278890871</v>
+        <v>0.90112860098308289</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12793,12 +12785,12 @@
       <c r="AC103" s="1">
         <v>4958000000</v>
       </c>
-      <c r="AJ103" s="39" t="s">
+      <c r="AJ103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AK103" s="45">
+      <c r="AK103" s="41">
         <f>AK99+AK101</f>
-        <v>99175530000</v>
+        <v>77322664350</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12889,10 +12881,10 @@
       <c r="AC104" s="11">
         <v>3957000000</v>
       </c>
-      <c r="AJ104" s="35" t="s">
+      <c r="AJ104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AK104" s="36"/>
+      <c r="AK104" s="65"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12920,7 +12912,7 @@
         <v>0.64115432873274791</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AC105" si="8">(H106/G106)-1</f>
         <v>-0.56727828746177367</v>
       </c>
       <c r="I105" s="15">
@@ -13018,7 +13010,7 @@
       </c>
       <c r="AK105" s="26">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>7.9325242204207572E-2</v>
+        <v>7.8579396450604605E-2</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13109,33 +13101,33 @@
       <c r="AC106" s="1">
         <v>2000000000</v>
       </c>
-      <c r="AD106" s="46">
+      <c r="AD106" s="42">
         <f>AC106*(1+$AK$106)</f>
         <v>2127171809.9925714</v>
       </c>
-      <c r="AE106" s="46">
+      <c r="AE106" s="42">
         <f t="shared" ref="AE106:AH106" si="9">AD106*(1+$AK$106)</f>
         <v>2262429954.6135359</v>
       </c>
-      <c r="AF106" s="46">
+      <c r="AF106" s="42">
         <f t="shared" si="9"/>
         <v>2406288610.768343</v>
       </c>
-      <c r="AG106" s="46">
+      <c r="AG106" s="42">
         <f t="shared" si="9"/>
         <v>2559294649.7663031</v>
       </c>
-      <c r="AH106" s="46">
+      <c r="AH106" s="42">
         <f t="shared" si="9"/>
         <v>2722029716.2238455</v>
       </c>
-      <c r="AI106" s="47" t="s">
+      <c r="AI106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AJ106" s="48" t="s">
+      <c r="AJ106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AK106" s="49">
+      <c r="AK106" s="45">
         <f>(SUM(AD4:AH4)/5)</f>
         <v>6.3585904996285733E-2</v>
       </c>
@@ -13170,151 +13162,151 @@
       <c r="AA107" s="13"/>
       <c r="AB107" s="13"/>
       <c r="AC107" s="13"/>
-      <c r="AD107" s="47"/>
-      <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-      <c r="AG107" s="47"/>
-      <c r="AH107" s="50">
+      <c r="AD107" s="43"/>
+      <c r="AE107" s="43"/>
+      <c r="AF107" s="43"/>
+      <c r="AG107" s="43"/>
+      <c r="AH107" s="46">
         <f>AH106*(1+AK107)/(AK108-AK107)</f>
-        <v>51358822269.794601</v>
-      </c>
-      <c r="AI107" s="51" t="s">
+        <v>52073756778.907448</v>
+      </c>
+      <c r="AI107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AJ107" s="52" t="s">
+      <c r="AJ107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AK107" s="53">
+      <c r="AK107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD108" s="50">
+      <c r="AD108" s="46">
         <f t="shared" ref="AD108:AF108" si="10">AD107+AD106</f>
         <v>2127171809.9925714</v>
       </c>
-      <c r="AE108" s="50">
+      <c r="AE108" s="46">
         <f t="shared" si="10"/>
         <v>2262429954.6135359</v>
       </c>
-      <c r="AF108" s="50">
+      <c r="AF108" s="46">
         <f t="shared" si="10"/>
         <v>2406288610.768343</v>
       </c>
-      <c r="AG108" s="50">
+      <c r="AG108" s="46">
         <f>AG107+AG106</f>
         <v>2559294649.7663031</v>
       </c>
-      <c r="AH108" s="50">
+      <c r="AH108" s="46">
         <f>AH107+AH106</f>
-        <v>54080851986.018448</v>
-      </c>
-      <c r="AI108" s="51" t="s">
+        <v>54795786495.131294</v>
+      </c>
+      <c r="AI108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AJ108" s="54" t="s">
+      <c r="AJ108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AK108" s="55">
+      <c r="AK108" s="51">
         <f>AK105</f>
-        <v>7.9325242204207572E-2</v>
+        <v>7.8579396450604605E-2</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="56" t="s">
+      <c r="AD109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AE109" s="57"/>
+      <c r="AE109" s="61"/>
     </row>
     <row r="110" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD110" s="58" t="s">
+      <c r="AD110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AE110" s="44">
+      <c r="AE110" s="40">
         <f>NPV(AK108,AD108,AE108,AF108,AG108,AH108)</f>
-        <v>44634284750.343719</v>
+        <v>45265149255.093742</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD111" s="58" t="s">
+      <c r="AD111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AE111" s="44">
+      <c r="AE111" s="40">
         <f>AC40</f>
         <v>3957000000</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD112" s="58" t="s">
+      <c r="AD112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AE112" s="44">
+      <c r="AE112" s="40">
         <f>AK99</f>
         <v>7645000000</v>
       </c>
     </row>
     <row r="113" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD113" s="58" t="s">
+      <c r="AD113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AE113" s="44">
+      <c r="AE113" s="40">
         <f>AE110+AE111-AE112</f>
-        <v>40946284750.343719</v>
+        <v>41577149255.093742</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD114" s="58" t="s">
+      <c r="AD114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AE114" s="59">
+      <c r="AE114" s="53">
         <f>AC34*(1+(5*AI16))</f>
         <v>356968183.65508741</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD115" s="60" t="s">
+      <c r="AD115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AE115" s="61">
+      <c r="AE115" s="55">
         <f>AE113/AE114</f>
-        <v>114.70569822521539</v>
+        <v>116.47298319243696</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD116" s="58" t="s">
+      <c r="AD116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AE116" s="62" cm="1">
+      <c r="AE116" s="56" cm="1">
         <f t="array" ref="AE116">_FV(A1,"Price")</f>
-        <v>256.23</v>
+        <v>194.95</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD117" s="63" t="s">
+      <c r="AD117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AE117" s="64">
+      <c r="AE117" s="58">
         <f>AE115/AE116-1</f>
-        <v>-0.55233306706780871</v>
+        <v>-0.4025494578484895</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD118" s="63" t="s">
+      <c r="AD118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AE118" s="65" t="str">
+      <c r="AE118" s="59" t="str">
         <f>IF(AE115&gt;AE116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AD109:AE109"/>
     <mergeCell ref="AJ83:AK83"/>
     <mergeCell ref="AJ84:AK84"/>
     <mergeCell ref="AJ93:AK93"/>
     <mergeCell ref="AJ98:AK98"/>
     <mergeCell ref="AJ104:AK104"/>
-    <mergeCell ref="AD109:AE109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/EL" display="ROIC.AI | EL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Estee Lauder.xlsx
+++ b/Consumer/Estee Lauder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC3156-05B9-AC4E-A534-DD28B3685068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163DD42-A3DC-B247-97B1-3BD7CE722C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2441,38 +2441,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>284.45</v>
-    <v>186.47</v>
-    <v>1.0302</v>
-    <v>-6.24</v>
-    <v>-3.1015000000000001E-2</v>
-    <v>0.01</v>
-    <v>5.13E-5</v>
+    <v>175.05</v>
+    <v>1.0243</v>
+    <v>-3.88</v>
+    <v>-1.9841999999999999E-2</v>
     <v>USD</v>
-    <v>The Estee Lauder Companies Inc. manufacturers, markets and sells skin care, makeup, fragrance and hair care products. The Company operates through the beauty products segment. Its product categories include skin care, makeup, fragrance, hair care and other. The Company's products are sold in approximately 150 countries and territories under a number of brand names, including Estee Lauder, Aramis, Clinique, Lab Series, Origins, M.A.C, Bobbi Brown, La Mer, Aveda, Jo Malone London, Bumble and bumble, Darphin, Smashbox, Le Labo, Editions de Parfums Frederic Malle, GLAMGLOW, Kilian Paris, Too Faced, Dr.Jart+, DECIEM and The Ordinary. It also offers fragrances, cosmetics and/or related products under brand names, Tom Ford, Dr. Andrew Weil, and AERIN. Its skin care products include moisturizers, serums, cleansers, toners, exfoliators, acne and oil correctors, facial masks, and sun care products. Its makeup products include lipsticks, lip glosses, mascaras, foundations and others.</v>
+    <v>The Estee Lauder Companies Inc. manufacturers, markets and sells skin care, makeup, fragrance and hair care products. The Company operates through the beauty products segment. Its product categories include skin care, makeup, fragrance, hair care and other. The Company's products are sold in approximately 150 countries and territories under a number of brand names, including Estee Lauder, Aramis, Clinique, Lab Series, Origins, M.A.C, Bobbi Brown, La Mer, Aveda, Jo Malone London, Bumble and bumble, Darphin, Smashbox, Le Labo, Editions de Parfums Frederic Malle, GLAMGLOW, Kilian Paris, Too Faced, Dr.Jart+, DECIEM and The Ordinary. It also offers fragrances, cosmetics and/or related products under brand names, TOM FORD, Dr. Andrew Weil, and AERIN. Its skin care products include moisturizers, serums, cleansers, toners, exfoliators, acne and oil correctors, facial masks, and sun care products. Its makeup products include lipsticks, lip glosses, mascaras, foundations and others.</v>
     <v>63000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>767 5th Ave, NEW YORK, NY, 10153 US</v>
-    <v>201.7</v>
+    <v>194.11</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45062.997127753908</v>
+    <v>45100.782322164065</v>
     <v>0</v>
-    <v>194.9</v>
-    <v>69677664350</v>
+    <v>190.79</v>
+    <v>68501775580</v>
     <v>THE ESTEE LAUDER COMPANIES INC.</v>
     <v>THE ESTEE LAUDER COMPANIES INC.</v>
-    <v>201.5</v>
-    <v>66.648099999999999</v>
-    <v>201.19</v>
-    <v>194.95</v>
-    <v>194.96</v>
+    <v>194.1</v>
+    <v>64.776399999999995</v>
+    <v>195.54</v>
+    <v>191.66</v>
     <v>357413000</v>
     <v>EL</v>
     <v>THE ESTEE LAUDER COMPANIES INC. (XNYS:EL)</v>
-    <v>2021110</v>
-    <v>2430185</v>
+    <v>982869</v>
+    <v>2530448</v>
     <v>1976</v>
   </rv>
   <rv s="2">
@@ -2504,8 +2501,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2526,7 +2521,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2543,7 +2537,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2554,16 +2548,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2629,19 +2620,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2686,9 +2671,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2696,9 +2678,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3063,7 +3042,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Z83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE99" sqref="AE99"/>
+      <selection pane="bottomRight" activeCell="Z113" sqref="Z113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4768,15 +4747,15 @@
       </c>
       <c r="AJ16" s="30">
         <f>AK101/AC3</f>
-        <v>3.9283793397981621</v>
+        <v>3.8620835304730226</v>
       </c>
       <c r="AK16" s="30">
         <f>AK101/AC28</f>
-        <v>29.153834456066946</v>
+        <v>28.661830786610878</v>
       </c>
       <c r="AL16" s="31">
         <f>AK101/AC106</f>
-        <v>34.838832175</v>
+        <v>34.25088779</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12026,7 +12005,7 @@
       </c>
       <c r="AK95" s="39" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.0302</v>
+        <v>1.0243</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12217,7 +12196,7 @@
       </c>
       <c r="AK97" s="36">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>8.5300110000000012E-2</v>
+        <v>8.5046115000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12502,7 +12481,7 @@
       </c>
       <c r="AK100" s="34">
         <f>AK99/AK103</f>
-        <v>9.8871399016917091E-2</v>
+        <v>0.10039821045302362</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12598,7 +12577,7 @@
       </c>
       <c r="AK101" s="40" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>69677664350</v>
+        <v>68501775580</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12694,7 +12673,7 @@
       </c>
       <c r="AK102" s="34">
         <f>AK101/AK103</f>
-        <v>0.90112860098308289</v>
+        <v>0.89960178954697634</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12790,7 +12769,7 @@
       </c>
       <c r="AK103" s="41">
         <f>AK99+AK101</f>
-        <v>77322664350</v>
+        <v>76146775580</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13010,7 +12989,7 @@
       </c>
       <c r="AK105" s="26">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>7.8579396450604605E-2</v>
+        <v>7.8247118164559773E-2</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13168,7 +13147,7 @@
       <c r="AG107" s="43"/>
       <c r="AH107" s="46">
         <f>AH106*(1+AK107)/(AK108-AK107)</f>
-        <v>52073756778.907448</v>
+        <v>52398712931.406372</v>
       </c>
       <c r="AI107" s="47" t="s">
         <v>148</v>
@@ -13199,7 +13178,7 @@
       </c>
       <c r="AH108" s="46">
         <f>AH107+AH106</f>
-        <v>54795786495.131294</v>
+        <v>55120742647.630219</v>
       </c>
       <c r="AI108" s="47" t="s">
         <v>144</v>
@@ -13209,7 +13188,7 @@
       </c>
       <c r="AK108" s="51">
         <f>AK105</f>
-        <v>7.8579396450604605E-2</v>
+        <v>7.8247118164559773E-2</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13224,7 +13203,7 @@
       </c>
       <c r="AE110" s="40">
         <f>NPV(AK108,AD108,AE108,AF108,AG108,AH108)</f>
-        <v>45265149255.093742</v>
+        <v>45551901948.807053</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13251,7 +13230,7 @@
       </c>
       <c r="AE113" s="40">
         <f>AE110+AE111-AE112</f>
-        <v>41577149255.093742</v>
+        <v>41863901948.807053</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13269,7 +13248,7 @@
       </c>
       <c r="AE115" s="55">
         <f>AE113/AE114</f>
-        <v>116.47298319243696</v>
+        <v>117.27628361763782</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13278,7 +13257,7 @@
       </c>
       <c r="AE116" s="56" cm="1">
         <f t="array" ref="AE116">_FV(A1,"Price")</f>
-        <v>194.95</v>
+        <v>191.66</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13287,7 +13266,7 @@
       </c>
       <c r="AE117" s="58">
         <f>AE115/AE116-1</f>
-        <v>-0.4025494578484895</v>
+        <v>-0.38810245425421153</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
